--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/11/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/11/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.76837</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1768.37</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.29327</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2293.27</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124015</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.71561</v>
+        <v>4.21574</v>
       </c>
       <c r="C6" t="n">
-        <v>2715.61</v>
+        <v>4215.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155045</v>
+        <v>0.155036</v>
       </c>
       <c r="B7" t="n">
-        <v>3.12525</v>
+        <v>4.844609999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>3125.25</v>
+        <v>4844.61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186021</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>3.52393</v>
+        <v>5.37612</v>
       </c>
       <c r="C8" t="n">
-        <v>3523.93</v>
+        <v>5376.12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216998</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>3.78029</v>
+        <v>5.80292</v>
       </c>
       <c r="C9" t="n">
-        <v>3780.29</v>
+        <v>5802.92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247973</v>
+        <v>0.24793</v>
       </c>
       <c r="B10" t="n">
-        <v>3.96475</v>
+        <v>6.19974</v>
       </c>
       <c r="C10" t="n">
-        <v>3964.75</v>
+        <v>6199.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278898</v>
+        <v>0.278855</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02474</v>
+        <v>6.47038</v>
       </c>
       <c r="C11" t="n">
-        <v>4024.74</v>
+        <v>6470.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309824</v>
+        <v>0.30978</v>
       </c>
       <c r="B12" t="n">
-        <v>4.03632</v>
+        <v>6.71771</v>
       </c>
       <c r="C12" t="n">
-        <v>4036.32</v>
+        <v>6717.71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340749</v>
+        <v>0.340705</v>
       </c>
       <c r="B13" t="n">
-        <v>4.044</v>
+        <v>6.89364</v>
       </c>
       <c r="C13" t="n">
-        <v>4044</v>
+        <v>6893.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371674</v>
+        <v>0.37163</v>
       </c>
       <c r="B14" t="n">
-        <v>4.04993</v>
+        <v>7.01454</v>
       </c>
       <c r="C14" t="n">
-        <v>4049.93</v>
+        <v>7014.54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402599</v>
+        <v>0.402555</v>
       </c>
       <c r="B15" t="n">
-        <v>4.05468</v>
+        <v>7.10432</v>
       </c>
       <c r="C15" t="n">
-        <v>4054.68</v>
+        <v>7104.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433519</v>
+        <v>0.43348</v>
       </c>
       <c r="B16" t="n">
-        <v>4.05883</v>
+        <v>7.17478</v>
       </c>
       <c r="C16" t="n">
-        <v>4058.83</v>
+        <v>7174.78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464444</v>
+        <v>0.464405</v>
       </c>
       <c r="B17" t="n">
-        <v>4.06225</v>
+        <v>7.21995</v>
       </c>
       <c r="C17" t="n">
-        <v>4062.25</v>
+        <v>7219.95</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495369</v>
+        <v>0.495326</v>
       </c>
       <c r="B18" t="n">
-        <v>4.065090000000001</v>
+        <v>7.25826</v>
       </c>
       <c r="C18" t="n">
-        <v>4065.09</v>
+        <v>7258.26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526294</v>
+        <v>0.526251</v>
       </c>
       <c r="B19" t="n">
-        <v>4.06759</v>
+        <v>7.29258</v>
       </c>
       <c r="C19" t="n">
-        <v>4067.59</v>
+        <v>7292.58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557219</v>
+        <v>0.557176</v>
       </c>
       <c r="B20" t="n">
-        <v>4.06963</v>
+        <v>7.32021</v>
       </c>
       <c r="C20" t="n">
-        <v>4069.63</v>
+        <v>7320.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588144</v>
+        <v>0.588101</v>
       </c>
       <c r="B21" t="n">
-        <v>4.07131</v>
+        <v>7.342720000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>4071.31</v>
+        <v>7342.72</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619186</v>
+        <v>0.619143</v>
       </c>
       <c r="B22" t="n">
-        <v>4.07267</v>
+        <v>7.36181</v>
       </c>
       <c r="C22" t="n">
-        <v>4072.67</v>
+        <v>7361.81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650363</v>
+        <v>0.65032</v>
       </c>
       <c r="B23" t="n">
-        <v>4.07374</v>
+        <v>7.37776</v>
       </c>
       <c r="C23" t="n">
-        <v>4073.74</v>
+        <v>7377.76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681536</v>
+        <v>0.681493</v>
       </c>
       <c r="B24" t="n">
-        <v>4.07453</v>
+        <v>7.39168</v>
       </c>
       <c r="C24" t="n">
-        <v>4074.53</v>
+        <v>7391.68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712708</v>
+        <v>0.712665</v>
       </c>
       <c r="B25" t="n">
-        <v>4.07507</v>
+        <v>7.40424</v>
       </c>
       <c r="C25" t="n">
-        <v>4075.07</v>
+        <v>7404.24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743885</v>
+        <v>0.743842</v>
       </c>
       <c r="B26" t="n">
-        <v>4.07538</v>
+        <v>7.41391</v>
       </c>
       <c r="C26" t="n">
-        <v>4075.38</v>
+        <v>7413.91</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775058</v>
+        <v>0.775015</v>
       </c>
       <c r="B27" t="n">
-        <v>4.07547</v>
+        <v>7.4214</v>
       </c>
       <c r="C27" t="n">
-        <v>4075.47</v>
+        <v>7421.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806231</v>
+        <v>0.806187</v>
       </c>
       <c r="B28" t="n">
-        <v>4.07537</v>
+        <v>7.42792</v>
       </c>
       <c r="C28" t="n">
-        <v>4075.37</v>
+        <v>7427.92</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837408</v>
+        <v>0.837364</v>
       </c>
       <c r="B29" t="n">
-        <v>4.07507</v>
+        <v>7.43217</v>
       </c>
       <c r="C29" t="n">
-        <v>4075.07</v>
+        <v>7432.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.86858</v>
+        <v>0.868537</v>
       </c>
       <c r="B30" t="n">
-        <v>4.07458</v>
+        <v>7.43545</v>
       </c>
       <c r="C30" t="n">
-        <v>4074.58</v>
+        <v>7435.45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899753</v>
+        <v>0.899714</v>
       </c>
       <c r="B31" t="n">
-        <v>4.07391</v>
+        <v>7.43696</v>
       </c>
       <c r="C31" t="n">
-        <v>4073.91</v>
+        <v>7436.96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.93093</v>
+        <v>0.930886</v>
       </c>
       <c r="B32" t="n">
-        <v>4.07307</v>
+        <v>7.43741</v>
       </c>
       <c r="C32" t="n">
-        <v>4073.07</v>
+        <v>7437.41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962102</v>
+        <v>0.962059</v>
       </c>
       <c r="B33" t="n">
-        <v>4.072030000000001</v>
+        <v>7.4364</v>
       </c>
       <c r="C33" t="n">
-        <v>4072.03</v>
+        <v>7436.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993279</v>
+        <v>0.993236</v>
       </c>
       <c r="B34" t="n">
-        <v>4.07082</v>
+        <v>7.434310000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>4070.82</v>
+        <v>7434.31</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02431</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>4.06944</v>
+        <v>7.43093</v>
       </c>
       <c r="C35" t="n">
-        <v>4069.44</v>
+        <v>7430.93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05528</v>
+        <v>1.05593</v>
       </c>
       <c r="B36" t="n">
-        <v>4.06789</v>
+        <v>7.42647</v>
       </c>
       <c r="C36" t="n">
-        <v>4067.89</v>
+        <v>7426.47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08625</v>
+        <v>1.08732</v>
       </c>
       <c r="B37" t="n">
-        <v>4.06618</v>
+        <v>7.42084</v>
       </c>
       <c r="C37" t="n">
-        <v>4066.18</v>
+        <v>7420.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11722</v>
+        <v>1.11869</v>
       </c>
       <c r="B38" t="n">
-        <v>4.0643</v>
+        <v>7.414090000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>4064.3</v>
+        <v>7414.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14816</v>
+        <v>1.15007</v>
       </c>
       <c r="B39" t="n">
-        <v>4.06229</v>
+        <v>7.40598</v>
       </c>
       <c r="C39" t="n">
-        <v>4062.29</v>
+        <v>7405.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17922</v>
+        <v>1.18146</v>
       </c>
       <c r="B40" t="n">
-        <v>4.06013</v>
+        <v>7.39651</v>
       </c>
       <c r="C40" t="n">
-        <v>4060.13</v>
+        <v>7396.51</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21027</v>
+        <v>1.2125</v>
       </c>
       <c r="B41" t="n">
-        <v>4.05782</v>
+        <v>7.38604</v>
       </c>
       <c r="C41" t="n">
-        <v>4057.82</v>
+        <v>7386.04</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.2412</v>
+        <v>1.24347</v>
       </c>
       <c r="B42" t="n">
-        <v>4.05539</v>
+        <v>7.37443</v>
       </c>
       <c r="C42" t="n">
-        <v>4055.39</v>
+        <v>7374.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27278</v>
+        <v>1.27443</v>
       </c>
       <c r="B43" t="n">
-        <v>4.05276</v>
+        <v>7.36172</v>
       </c>
       <c r="C43" t="n">
-        <v>4052.76</v>
+        <v>7361.72</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30412</v>
+        <v>1.3054</v>
       </c>
       <c r="B44" t="n">
-        <v>4.04998</v>
+        <v>7.34795</v>
       </c>
       <c r="C44" t="n">
-        <v>4049.98</v>
+        <v>7347.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33526</v>
+        <v>1.33637</v>
       </c>
       <c r="B45" t="n">
-        <v>4.04709</v>
+        <v>7.33303</v>
       </c>
       <c r="C45" t="n">
-        <v>4047.09</v>
+        <v>7333.03</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36641</v>
+        <v>1.36734</v>
       </c>
       <c r="B46" t="n">
-        <v>4.04404</v>
+        <v>7.31687</v>
       </c>
       <c r="C46" t="n">
-        <v>4044.04</v>
+        <v>7316.87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39756</v>
+        <v>1.3983</v>
       </c>
       <c r="B47" t="n">
-        <v>4.04082</v>
+        <v>7.29941</v>
       </c>
       <c r="C47" t="n">
-        <v>4040.82</v>
+        <v>7299.41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.4287</v>
+        <v>1.42927</v>
       </c>
       <c r="B48" t="n">
-        <v>4.03747</v>
+        <v>7.280340000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>4037.47</v>
+        <v>7280.34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45985</v>
+        <v>1.46024</v>
       </c>
       <c r="B49" t="n">
-        <v>4.03399</v>
+        <v>7.25989</v>
       </c>
       <c r="C49" t="n">
-        <v>4033.99</v>
+        <v>7259.89</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.491</v>
+        <v>1.4912</v>
       </c>
       <c r="B50" t="n">
-        <v>4.03033</v>
+        <v>7.23801</v>
       </c>
       <c r="C50" t="n">
-        <v>4030.33</v>
+        <v>7238.01</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52211</v>
+        <v>1.52217</v>
       </c>
       <c r="B51" t="n">
-        <v>4.02648</v>
+        <v>7.2148</v>
       </c>
       <c r="C51" t="n">
-        <v>4026.48</v>
+        <v>7214.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55282</v>
+        <v>1.55314</v>
       </c>
       <c r="B52" t="n">
-        <v>4.022489999999999</v>
+        <v>7.19021</v>
       </c>
       <c r="C52" t="n">
-        <v>4022.49</v>
+        <v>7190.21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58355</v>
+        <v>1.58411</v>
       </c>
       <c r="B53" t="n">
-        <v>4.01837</v>
+        <v>7.164149999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>4018.37</v>
+        <v>7164.15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61427</v>
+        <v>1.61508</v>
       </c>
       <c r="B54" t="n">
-        <v>4.0141</v>
+        <v>7.136550000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>4014.1</v>
+        <v>7136.55</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64499</v>
+        <v>1.64604</v>
       </c>
       <c r="B55" t="n">
-        <v>4.00958</v>
+        <v>7.107250000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>4009.58</v>
+        <v>7107.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.6757</v>
+        <v>1.67701</v>
       </c>
       <c r="B56" t="n">
-        <v>4.00495</v>
+        <v>7.07625</v>
       </c>
       <c r="C56" t="n">
-        <v>4004.95</v>
+        <v>7076.25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70643</v>
+        <v>1.70798</v>
       </c>
       <c r="B57" t="n">
-        <v>4.000150000000001</v>
+        <v>7.04354</v>
       </c>
       <c r="C57" t="n">
-        <v>4000.15</v>
+        <v>7043.54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73715</v>
+        <v>1.73895</v>
       </c>
       <c r="B58" t="n">
-        <v>3.9952</v>
+        <v>7.00913</v>
       </c>
       <c r="C58" t="n">
-        <v>3995.2</v>
+        <v>7009.13</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76769</v>
+        <v>1.76992</v>
       </c>
       <c r="B59" t="n">
-        <v>3.99001</v>
+        <v>6.973020000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>3990.01</v>
+        <v>6973.02</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79814</v>
+        <v>1.80066</v>
       </c>
       <c r="B60" t="n">
-        <v>3.98458</v>
+        <v>6.93519</v>
       </c>
       <c r="C60" t="n">
-        <v>3984.58</v>
+        <v>6935.19</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82947</v>
+        <v>1.8319</v>
       </c>
       <c r="B61" t="n">
-        <v>3.97881</v>
+        <v>6.89486</v>
       </c>
       <c r="C61" t="n">
-        <v>3978.81</v>
+        <v>6894.86</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86081</v>
+        <v>1.86269</v>
       </c>
       <c r="B62" t="n">
-        <v>3.97286</v>
+        <v>6.853020000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>3972.86</v>
+        <v>6853.02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89215</v>
+        <v>1.89384</v>
       </c>
       <c r="B63" t="n">
-        <v>3.96672</v>
+        <v>6.80862</v>
       </c>
       <c r="C63" t="n">
-        <v>3966.72</v>
+        <v>6808.62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92348</v>
+        <v>1.92483</v>
       </c>
       <c r="B64" t="n">
-        <v>3.96029</v>
+        <v>6.76229</v>
       </c>
       <c r="C64" t="n">
-        <v>3960.29</v>
+        <v>6762.29</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95482</v>
+        <v>1.95578</v>
       </c>
       <c r="B65" t="n">
-        <v>3.95353</v>
+        <v>6.713640000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>3953.53</v>
+        <v>6713.64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98616</v>
+        <v>1.98687</v>
       </c>
       <c r="B66" t="n">
-        <v>3.94641</v>
+        <v>6.662500000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>3946.41</v>
+        <v>6662.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01738</v>
+        <v>2.01766</v>
       </c>
       <c r="B67" t="n">
-        <v>3.93892</v>
+        <v>6.60942</v>
       </c>
       <c r="C67" t="n">
-        <v>3938.92</v>
+        <v>6609.42</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04828</v>
+        <v>2.0489</v>
       </c>
       <c r="B68" t="n">
-        <v>3.93106</v>
+        <v>6.55332</v>
       </c>
       <c r="C68" t="n">
-        <v>3931.06</v>
+        <v>6553.32</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07918</v>
+        <v>2.07996</v>
       </c>
       <c r="B69" t="n">
-        <v>3.92295</v>
+        <v>6.49521</v>
       </c>
       <c r="C69" t="n">
-        <v>3922.95</v>
+        <v>6495.21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11008</v>
+        <v>2.11076</v>
       </c>
       <c r="B70" t="n">
-        <v>3.91457</v>
+        <v>6.43478</v>
       </c>
       <c r="C70" t="n">
-        <v>3914.57</v>
+        <v>6434.78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14097</v>
+        <v>2.14189</v>
       </c>
       <c r="B71" t="n">
-        <v>3.90589</v>
+        <v>6.37146</v>
       </c>
       <c r="C71" t="n">
-        <v>3905.89</v>
+        <v>6371.46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17187</v>
+        <v>2.17278</v>
       </c>
       <c r="B72" t="n">
-        <v>3.89685</v>
+        <v>6.30635</v>
       </c>
       <c r="C72" t="n">
-        <v>3896.85</v>
+        <v>6306.35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20276</v>
+        <v>2.20394</v>
       </c>
       <c r="B73" t="n">
-        <v>3.88751</v>
+        <v>6.237970000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>3887.51</v>
+        <v>6237.97</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23366</v>
+        <v>2.23477</v>
       </c>
       <c r="B74" t="n">
-        <v>3.87789</v>
+        <v>6.168</v>
       </c>
       <c r="C74" t="n">
-        <v>3877.89</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26456</v>
+        <v>2.26592</v>
       </c>
       <c r="B75" t="n">
-        <v>3.86784</v>
+        <v>6.09563</v>
       </c>
       <c r="C75" t="n">
-        <v>3867.84</v>
+        <v>6095.63</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29546</v>
+        <v>2.29692</v>
       </c>
       <c r="B76" t="n">
-        <v>3.85739</v>
+        <v>6.02124</v>
       </c>
       <c r="C76" t="n">
-        <v>3857.39</v>
+        <v>6021.24</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32635</v>
+        <v>2.32775</v>
       </c>
       <c r="B77" t="n">
-        <v>3.84651</v>
+        <v>5.9451</v>
       </c>
       <c r="C77" t="n">
-        <v>3846.51</v>
+        <v>5945.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35725</v>
+        <v>2.35904</v>
       </c>
       <c r="B78" t="n">
-        <v>3.83506</v>
+        <v>5.86662</v>
       </c>
       <c r="C78" t="n">
-        <v>3835.06</v>
+        <v>5866.62</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38814</v>
+        <v>2.38976</v>
       </c>
       <c r="B79" t="n">
-        <v>3.82307</v>
+        <v>5.78712</v>
       </c>
       <c r="C79" t="n">
-        <v>3823.07</v>
+        <v>5787.12</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41917</v>
+        <v>2.42093</v>
       </c>
       <c r="B80" t="n">
-        <v>3.81043</v>
+        <v>5.70497</v>
       </c>
       <c r="C80" t="n">
-        <v>3810.43</v>
+        <v>5704.97</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45026</v>
+        <v>2.45314</v>
       </c>
       <c r="B81" t="n">
-        <v>3.79719</v>
+        <v>5.619359999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>3797.19</v>
+        <v>5619.36</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.48115</v>
+        <v>2.48443</v>
       </c>
       <c r="B82" t="n">
-        <v>3.78341</v>
+        <v>5.533939999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>3783.41</v>
+        <v>5533.94</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51132</v>
+        <v>2.51518</v>
       </c>
       <c r="B83" t="n">
-        <v>3.76921</v>
+        <v>5.44998</v>
       </c>
       <c r="C83" t="n">
-        <v>3769.21</v>
+        <v>5449.98</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54244</v>
+        <v>2.54505</v>
       </c>
       <c r="B84" t="n">
-        <v>3.75406</v>
+        <v>5.3679</v>
       </c>
       <c r="C84" t="n">
-        <v>3754.06</v>
+        <v>5367.9</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57395</v>
+        <v>2.57652</v>
       </c>
       <c r="B85" t="n">
-        <v>3.73769</v>
+        <v>5.28129</v>
       </c>
       <c r="C85" t="n">
-        <v>3737.69</v>
+        <v>5281.29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60532</v>
+        <v>2.60852</v>
       </c>
       <c r="B86" t="n">
-        <v>3.72075</v>
+        <v>5.19322</v>
       </c>
       <c r="C86" t="n">
-        <v>3720.75</v>
+        <v>5193.22</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63585</v>
+        <v>2.63984</v>
       </c>
       <c r="B87" t="n">
-        <v>3.7032</v>
+        <v>5.107270000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>3703.2</v>
+        <v>5107.27</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66624</v>
+        <v>2.67024</v>
       </c>
       <c r="B88" t="n">
-        <v>3.68512</v>
+        <v>5.02316</v>
       </c>
       <c r="C88" t="n">
-        <v>3685.12</v>
+        <v>5023.16</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69746</v>
+        <v>2.70047</v>
       </c>
       <c r="B89" t="n">
-        <v>3.66538</v>
+        <v>4.9408</v>
       </c>
       <c r="C89" t="n">
-        <v>3665.38</v>
+        <v>4940.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72893</v>
+        <v>2.73026</v>
       </c>
       <c r="B90" t="n">
-        <v>3.64456</v>
+        <v>4.85763</v>
       </c>
       <c r="C90" t="n">
-        <v>3644.56</v>
+        <v>4857.63</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75986</v>
+        <v>2.76317</v>
       </c>
       <c r="B91" t="n">
-        <v>3.62315</v>
+        <v>4.76809</v>
       </c>
       <c r="C91" t="n">
-        <v>3623.15</v>
+        <v>4768.09</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78994</v>
+        <v>2.79492</v>
       </c>
       <c r="B92" t="n">
-        <v>3.60104</v>
+        <v>4.68094</v>
       </c>
       <c r="C92" t="n">
-        <v>3601.04</v>
+        <v>4680.94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82133</v>
+        <v>2.82601</v>
       </c>
       <c r="B93" t="n">
-        <v>3.57722</v>
+        <v>4.59638</v>
       </c>
       <c r="C93" t="n">
-        <v>3577.22</v>
+        <v>4596.38</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85283</v>
+        <v>2.85709</v>
       </c>
       <c r="B94" t="n">
-        <v>3.5518</v>
+        <v>4.51467</v>
       </c>
       <c r="C94" t="n">
-        <v>3551.8</v>
+        <v>4514.67</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88414</v>
+        <v>2.88653</v>
       </c>
       <c r="B95" t="n">
-        <v>3.52578</v>
+        <v>4.43512</v>
       </c>
       <c r="C95" t="n">
-        <v>3525.78</v>
+        <v>4435.12</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91439</v>
+        <v>2.91578</v>
       </c>
       <c r="B96" t="n">
-        <v>3.49927</v>
+        <v>4.357729999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>3499.27</v>
+        <v>4357.73</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94458</v>
+        <v>2.94748</v>
       </c>
       <c r="B97" t="n">
-        <v>3.47201</v>
+        <v>4.276149999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>3472.01</v>
+        <v>4276.15</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97658</v>
+        <v>2.97994</v>
       </c>
       <c r="B98" t="n">
-        <v>3.44178</v>
+        <v>4.19106</v>
       </c>
       <c r="C98" t="n">
-        <v>3441.78</v>
+        <v>4191.06</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00813</v>
+        <v>3.01194</v>
       </c>
       <c r="B99" t="n">
-        <v>3.41124</v>
+        <v>4.109</v>
       </c>
       <c r="C99" t="n">
-        <v>3411.24</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03885</v>
+        <v>3.04394</v>
       </c>
       <c r="B100" t="n">
-        <v>3.38027</v>
+        <v>4.03012</v>
       </c>
       <c r="C100" t="n">
-        <v>3380.27</v>
+        <v>4030.12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06905</v>
+        <v>3.0739</v>
       </c>
       <c r="B101" t="n">
-        <v>3.34912</v>
+        <v>3.95392</v>
       </c>
       <c r="C101" t="n">
-        <v>3349.12</v>
+        <v>3953.92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10027</v>
+        <v>3.10377</v>
       </c>
       <c r="B102" t="n">
-        <v>3.31607</v>
+        <v>3.88031</v>
       </c>
       <c r="C102" t="n">
-        <v>3316.07</v>
+        <v>3880.31</v>
       </c>
     </row>
   </sheetData>
